--- a/web/file/student_list.xlsx
+++ b/web/file/student_list.xlsx
@@ -24,25 +24,35 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>Email</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Firstname</t>
   </si>
   <si>
     <t>Lastname</t>
   </si>
+  <si>
+    <t>*หัวข้อต้องมีตามนี้เท่านั้นห้ามแก้ไข</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -68,8 +78,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -350,29 +361,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>